--- a/biology/Mycologie/Coprinellus/Coprinellus.xlsx
+++ b/biology/Mycologie/Coprinellus/Coprinellus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coprinellus[1] P. Karst. est un genre de champignons basidiomycètes de la famille des Psathyrellaceae, regroupant,  sans exception connue pour l’instant, les coprins à sétules ou à voile farineux ou granuleux, des subsections Domestici, Micacei, Nivei, et Setulosi. Il accueille de nombreuses espèces[2] autrefois classées dans l'ancien genre cosmopolite Coprinus, comme le Coprin micacé, Coprinellus micaceus, par exemple. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coprinellus P. Karst. est un genre de champignons basidiomycètes de la famille des Psathyrellaceae, regroupant,  sans exception connue pour l’instant, les coprins à sétules ou à voile farineux ou granuleux, des subsections Domestici, Micacei, Nivei, et Setulosi. Il accueille de nombreuses espèces autrefois classées dans l'ancien genre cosmopolite Coprinus, comme le Coprin micacé, Coprinellus micaceus, par exemple. 
 L'espèce-type du genre est Coprinellus deliquescens.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D'après la 10e édition de Dictionary of the Fungi[3] (2007), ce genre contient les espèces suivantes :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>D'après la 10e édition de Dictionary of the Fungi (2007), ce genre contient les espèces suivantes :
 Coprinellus amphithallus
 Coprinellus angulatus
 Coprinellus aureogranulatus
